--- a/results/mp/logistic/corona/confidence/168/desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,129 +40,132 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
@@ -172,103 +175,103 @@
     <t>confidence</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>won</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>growth</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>huge</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
     <t>boost</t>
   </si>
   <si>
-    <t>kind</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -634,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -713,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -745,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -763,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -787,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -795,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8666666666666667</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -813,31 +816,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L5">
+        <v>31</v>
+      </c>
+      <c r="M5">
+        <v>31</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L5">
-        <v>116</v>
-      </c>
-      <c r="M5">
-        <v>116</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -866,16 +869,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9375</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -895,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8378378378378378</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,16 +919,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -945,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8356164383561644</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -963,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -995,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1013,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1037,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1045,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7333333333333333</v>
+        <v>0.72</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1063,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9302325581395349</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>352</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1087,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1095,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1113,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1145,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1163,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <v>0.9069767441860465</v>
+      </c>
+      <c r="L12">
         <v>39</v>
       </c>
-      <c r="K12">
-        <v>0.9190600522193212</v>
-      </c>
-      <c r="L12">
-        <v>352</v>
-      </c>
       <c r="M12">
-        <v>352</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1195,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.64</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1213,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9166666666666666</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1245,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6206896551724138</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1263,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1295,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5925925925925926</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C15">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1313,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>0.9014084507042254</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1337,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1345,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.5058139534883721</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8984375</v>
+        <v>0.890625</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1395,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5185185185185185</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1413,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8962264150943396</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1437,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1445,13 +1448,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5058139534883721</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C18">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1463,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8947368421052632</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1495,13 +1498,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4509803921568628</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,19 +1516,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.89375</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L19">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="M19">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1537,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1545,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.32</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1563,19 +1566,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8936170212765957</v>
+        <v>0.875</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1587,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1595,13 +1598,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2550335570469799</v>
+        <v>0.2214765100671141</v>
       </c>
       <c r="C21">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1613,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1645,13 +1648,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2542372881355932</v>
+        <v>0.1805555555555556</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1663,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
         <v>0.8658536585365854</v>
@@ -1695,13 +1698,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1361111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1713,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>311</v>
+        <v>238</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
         <v>0.8620689655172413</v>
@@ -1741,8 +1744,32 @@
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.0051513200257566</v>
+      </c>
+      <c r="C24">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0.06</v>
+      </c>
+      <c r="F24">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3090</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24">
         <v>0.8611111111111112</v>
@@ -1768,16 +1795,16 @@
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.8461538461538461</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1789,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1820,16 +1847,16 @@
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8125</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1841,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1867,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1893,21 +1920,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>0.7916666666666666</v>
+        <v>0.78</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1919,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1945,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.7777777777777778</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1971,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1997,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.76</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2023,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.7529411764705882</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L35">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="M35">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2049,21 +2076,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2075,21 +2102,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7428571428571429</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2106,16 +2133,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.7389830508474576</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L38">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="M38">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2127,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2153,21 +2180,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.7112970711297071</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L40">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2179,21 +2206,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2205,21 +2232,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6966292134831461</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2231,21 +2258,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.6702127659574468</v>
+        <v>0.65</v>
       </c>
       <c r="L43">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2257,21 +2284,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2283,21 +2310,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2309,21 +2336,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.6461538461538462</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2335,21 +2362,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.6428571428571429</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2361,21 +2388,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.6190476190476191</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L48">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M48">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2387,21 +2414,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2413,21 +2440,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2439,21 +2466,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.5833333333333334</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2465,21 +2492,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5490196078431373</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2491,21 +2518,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5476190476190477</v>
+        <v>0.5</v>
       </c>
       <c r="L53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2517,21 +2544,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.4871794871794872</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2543,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.4814814814814815</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2569,21 +2596,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.4520547945205479</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2595,21 +2622,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.4444444444444444</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2621,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
